--- a/output/fit_clients/fit_round_342.xlsx
+++ b/output/fit_clients/fit_round_342.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2462144918.676585</v>
+        <v>2276047853.07759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07223846966713346</v>
+        <v>0.08530604359216631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04518746709532313</v>
+        <v>0.0447982708341499</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1231072517.111253</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2262158257.274708</v>
+        <v>1936440091.372431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1701177643203721</v>
+        <v>0.161596677462276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03090379038119935</v>
+        <v>0.04852131758602539</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1131079209.300791</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3880079011.135919</v>
+        <v>3748014633.330985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1320243920870393</v>
+        <v>0.1550864490265974</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02527499998974032</v>
+        <v>0.02849528950214747</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>123</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1940039511.270331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3084724222.465175</v>
+        <v>4114352456.458642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08599467294985204</v>
+        <v>0.07254599454571031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03662414235424296</v>
+        <v>0.03644595812872156</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>129</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1542362175.458985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2336030490.475412</v>
+        <v>2697853019.525475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1052246179197701</v>
+        <v>0.1461194938256436</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04896832893116564</v>
+        <v>0.03750108610400294</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1168015238.473464</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2680735391.536897</v>
+        <v>3117267274.796586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09445219372914138</v>
+        <v>0.06988706524959608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04390345089131242</v>
+        <v>0.03404280006757207</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>105</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1340367691.38779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3519770878.781588</v>
+        <v>2773467385.675118</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1571319784801124</v>
+        <v>0.1647867640401817</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02685324414131402</v>
+        <v>0.0284022366605898</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>109</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1759885550.047031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1769846915.489401</v>
+        <v>1486621585.898069</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1332242047224226</v>
+        <v>0.195987445581237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02575037659323506</v>
+        <v>0.02565449043678661</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>884923516.2928758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3762907913.211753</v>
+        <v>4395208803.188647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1969051401471968</v>
+        <v>0.1573566930883623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03859421798781067</v>
+        <v>0.04455588481365236</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>144</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1881453960.129546</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4107746722.743687</v>
+        <v>3099640090.561202</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11642377466377</v>
+        <v>0.1450922485676908</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03010155107555404</v>
+        <v>0.03096719101286965</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>141</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2053873381.551733</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2645033754.223147</v>
+        <v>2374776927.6608</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16040219829668</v>
+        <v>0.1584673550217345</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05014943891492284</v>
+        <v>0.03374405930054743</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>117</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1322516862.64108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3545885569.688957</v>
+        <v>3734075822.868451</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06463938971794063</v>
+        <v>0.09604597389384215</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02178006862758242</v>
+        <v>0.02319297819223242</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1772942862.845029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3137517207.659943</v>
+        <v>2851273843.554825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1528928339733236</v>
+        <v>0.125438095229853</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04230365812685774</v>
+        <v>0.03820255428444915</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1568758628.320818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1603221334.54569</v>
+        <v>1193563615.181079</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0889903337252206</v>
+        <v>0.06655126431643051</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04502117045592426</v>
+        <v>0.04705610288427597</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>801610776.1815242</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2099975009.335707</v>
+        <v>1766795707.21784</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1139278648373044</v>
+        <v>0.1120175873927883</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04993835462522301</v>
+        <v>0.04860481258981528</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1049987571.227101</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4843946664.65076</v>
+        <v>4552733500.610771</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1407931445747673</v>
+        <v>0.1271576513044956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03455379501045161</v>
+        <v>0.03250825864766336</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>100</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2421973325.22675</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2555196080.943773</v>
+        <v>3753764643.776618</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1443646499124629</v>
+        <v>0.1307563618007578</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0250606140610637</v>
+        <v>0.03252464214508566</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>112</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1277598102.907193</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1038519453.492015</v>
+        <v>1208479181.440609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1583099870842066</v>
+        <v>0.1497421438645987</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01890876022999071</v>
+        <v>0.01821438711558666</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>519259765.3999416</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1787495259.900033</v>
+        <v>2196997639.709573</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1550754119894066</v>
+        <v>0.1292508602266961</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02556176591669436</v>
+        <v>0.02583442223722307</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>893747678.9396932</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2569973534.377594</v>
+        <v>1644048058.197284</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09101871836863633</v>
+        <v>0.09456604486595561</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04083160109775966</v>
+        <v>0.03626038159845305</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1284986748.605774</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3827126590.425439</v>
+        <v>3563224337.152128</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08939647733645442</v>
+        <v>0.110830758904222</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03806473782995742</v>
+        <v>0.03913049380666008</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1913563307.22449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1469293798.912305</v>
+        <v>1360143056.489943</v>
       </c>
       <c r="F23" t="n">
-        <v>0.118466831682144</v>
+        <v>0.1423960109856816</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03948483694891119</v>
+        <v>0.03303408168297694</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>734646890.5976378</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3421729970.398005</v>
+        <v>3671092345.354321</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1379902606718967</v>
+        <v>0.1173913206810327</v>
       </c>
       <c r="G24" t="n">
-        <v>0.030515818882418</v>
+        <v>0.02443950080028993</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1710864992.091784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1061314792.898021</v>
+        <v>1175014197.568256</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08693041220628929</v>
+        <v>0.07395277775373686</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02996814350490315</v>
+        <v>0.01970306052181842</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>530657446.3537741</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1056678477.298579</v>
+        <v>880514014.3547516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07911031879012188</v>
+        <v>0.1043514194412773</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02754658347867904</v>
+        <v>0.02507392917341048</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>528339224.6184697</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3642843653.323823</v>
+        <v>3619782700.681395</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1566487139331811</v>
+        <v>0.1231955539369409</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01672689693915579</v>
+        <v>0.02677552920701263</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1821421854.548277</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3173643709.628314</v>
+        <v>2850605272.308116</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09566155746800549</v>
+        <v>0.1362723449016929</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03784295965721425</v>
+        <v>0.03939971221139406</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>112</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1586821881.121574</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4891715051.158484</v>
+        <v>5390545409.477363</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1407585297492835</v>
+        <v>0.09296373823511547</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02981683180160572</v>
+        <v>0.04487734610401572</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>151</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2445857480.698246</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1825681446.353159</v>
+        <v>1496149071.393521</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0867420842350093</v>
+        <v>0.08666363686291106</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03624840340957147</v>
+        <v>0.02795707660938147</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>912840740.764503</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1187499870.471689</v>
+        <v>1062008462.00015</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0683783714877092</v>
+        <v>0.09431443054282712</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03257069346630759</v>
+        <v>0.04892325991824129</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>593749889.6554095</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1781037839.845684</v>
+        <v>1576446373.520211</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08593968027508503</v>
+        <v>0.1063123570016422</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02525845056412693</v>
+        <v>0.03485815422616121</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>890519046.4690222</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2113741635.689743</v>
+        <v>2035097304.288625</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1995996410677557</v>
+        <v>0.143904216841223</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0575259880641</v>
+        <v>0.0496436371804211</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>102</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1056870888.946956</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1152162636.666668</v>
+        <v>1228492008.090441</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07454944721638727</v>
+        <v>0.07918733719926309</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02397115425090184</v>
+        <v>0.01727402213224353</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>576081331.2435758</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1280124138.116341</v>
+        <v>932432427.8478767</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08365143534248509</v>
+        <v>0.09201481204942813</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03004722008938649</v>
+        <v>0.03295527190895505</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>640062026.2117126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3107468413.739377</v>
+        <v>3061457728.484706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1636451639421204</v>
+        <v>0.1525220413560201</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02813974993682005</v>
+        <v>0.01869738688570093</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>87</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1553734180.191893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2468504910.140712</v>
+        <v>2691570710.518494</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08176162147735598</v>
+        <v>0.08922299349816991</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03217302111368333</v>
+        <v>0.04218356659855237</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1234252546.838586</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699979573.580175</v>
+        <v>1558378232.935069</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1092746427942013</v>
+        <v>0.08483455714944167</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03042169862112288</v>
+        <v>0.03160097656385283</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>849989807.8052279</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2128142964.191558</v>
+        <v>2124996109.83895</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1372064218378029</v>
+        <v>0.1794855126245617</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02428746909160558</v>
+        <v>0.02975206724320549</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1064071457.21612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1537306398.123083</v>
+        <v>1630721527.184463</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1609688840545556</v>
+        <v>0.1390014911665005</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05004728303889681</v>
+        <v>0.04150045879298296</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>768653155.9304546</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2894127243.529348</v>
+        <v>2841727054.660069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1606318143957006</v>
+        <v>0.1479984290829412</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02907977004594662</v>
+        <v>0.03830373368994713</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>87</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1447063608.512609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3446595720.156016</v>
+        <v>4048674269.956495</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1169246705022633</v>
+        <v>0.08457329732933562</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0345678427767579</v>
+        <v>0.04479170407732833</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1723297851.25343</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2122495236.121106</v>
+        <v>2866484476.371561</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1370066394341739</v>
+        <v>0.1784385733195915</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01787044605553203</v>
+        <v>0.02092236422923646</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>123</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1061247704.677567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1992541682.612188</v>
+        <v>1623940559.353496</v>
       </c>
       <c r="F44" t="n">
-        <v>0.101842195231757</v>
+        <v>0.09406903902908031</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03267981026726691</v>
+        <v>0.02747899304172463</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>996270946.155386</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2008516255.297154</v>
+        <v>1678585562.34804</v>
       </c>
       <c r="F45" t="n">
-        <v>0.182961429446585</v>
+        <v>0.1859153196954988</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04877517025393103</v>
+        <v>0.05483199829318794</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1004258119.36631</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4248901164.837345</v>
+        <v>4045244475.221708</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1619573869344005</v>
+        <v>0.1482323710118746</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04844722481567692</v>
+        <v>0.055643285296543</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>121</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2124450566.2476</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3757744999.52676</v>
+        <v>3610721542.503027</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1321600594845341</v>
+        <v>0.1817644439339428</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05000130496356705</v>
+        <v>0.04405965033344993</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>91</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1878872485.15977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3007288788.13525</v>
+        <v>3221383774.23258</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09223545960534335</v>
+        <v>0.09751148514599367</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02406412971986073</v>
+        <v>0.03183327613970505</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1503644486.142414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1655546399.22888</v>
+        <v>1923582779.29667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1231204599308199</v>
+        <v>0.137524497783782</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04167225094840792</v>
+        <v>0.03878378784928083</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>827773207.4684772</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3146346999.674104</v>
+        <v>3486374390.845351</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1525770454879726</v>
+        <v>0.1464705410429862</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03417361323480454</v>
+        <v>0.04355937838943359</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>116</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1573173549.256718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1242326309.576502</v>
+        <v>1383251893.535716</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1393472102547517</v>
+        <v>0.1647404139331389</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05280077371280113</v>
+        <v>0.04725271340232685</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621163199.495506</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5002908961.144382</v>
+        <v>3568516926.909123</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1194121057207043</v>
+        <v>0.1184359067146637</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05709583701056622</v>
+        <v>0.04821470574929118</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>141</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2501454478.036291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3588079631.018651</v>
+        <v>2901436652.765805</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1553610489996011</v>
+        <v>0.1610664701876703</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02683675861307329</v>
+        <v>0.03497199389853761</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>98</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1794039807.373647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4124667949.935048</v>
+        <v>4905145051.294468</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1440297423895067</v>
+        <v>0.1308089431100048</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04496948665138258</v>
+        <v>0.03520175975587767</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2062334048.816323</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3750447659.480077</v>
+        <v>4968244289.30436</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2147864119646942</v>
+        <v>0.187927234722902</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02463556440525408</v>
+        <v>0.02431527176241847</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1875223793.643628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1870328241.014241</v>
+        <v>1195130832.233313</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1412391865378848</v>
+        <v>0.1007093367041872</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04696429101666262</v>
+        <v>0.04591945306297601</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>935164107.9098996</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2919720306.798397</v>
+        <v>4242002115.207474</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1776416155085285</v>
+        <v>0.1810041204861105</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02507851867956818</v>
+        <v>0.0274765776935951</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>108</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1459860151.069334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1744414495.360129</v>
+        <v>1229046145.301721</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1953714296383108</v>
+        <v>0.1536168263279209</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02645325649049253</v>
+        <v>0.02922544653377697</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>872207256.5145332</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4202247417.362894</v>
+        <v>4792719864.481223</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0911913833123273</v>
+        <v>0.09184065074034163</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04605244564556736</v>
+        <v>0.04577507376983244</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2101123674.879411</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3242905972.02411</v>
+        <v>2705182900.214528</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1667377217438852</v>
+        <v>0.1691026017199068</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02949458851406418</v>
+        <v>0.02484054037694328</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>106</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1621453081.848447</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3271519981.745523</v>
+        <v>2047196551.922703</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1279134512833541</v>
+        <v>0.1552276429749899</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0306052252227548</v>
+        <v>0.03285987375445164</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>116</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1635759945.74393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1724116016.507684</v>
+        <v>2008500108.814216</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1253734882646755</v>
+        <v>0.1515070294237668</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03781046051047939</v>
+        <v>0.03230781049158159</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>862058024.9386692</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5610041765.631059</v>
+        <v>4666703231.753137</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08850746212293192</v>
+        <v>0.08190989890550553</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03831584523821614</v>
+        <v>0.03019823109762185</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2805020873.389473</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4526565959.925033</v>
+        <v>5038493155.575612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1240636166900008</v>
+        <v>0.1849849529022202</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03550139015359426</v>
+        <v>0.0299748290022057</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>106</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2263283052.871536</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5363579701.404585</v>
+        <v>5303648938.085716</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1539179356441042</v>
+        <v>0.1348404588828636</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02773252503318231</v>
+        <v>0.02459657271496351</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>123</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2681789787.911126</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4584007042.16159</v>
+        <v>3620236343.389145</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1402707642935623</v>
+        <v>0.1058014753789187</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04115903893904192</v>
+        <v>0.04989104045109474</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>99</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2292003525.932726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3213979472.450175</v>
+        <v>3375458154.390811</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09005985656739722</v>
+        <v>0.09703543609492994</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03899787965870895</v>
+        <v>0.038747159124717</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>110</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1606989736.401145</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5993010198.555593</v>
+        <v>3738962052.397803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1488298379365125</v>
+        <v>0.1124058505746044</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04137203367811217</v>
+        <v>0.04348138902941102</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2996505215.851918</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1518865689.464207</v>
+        <v>1778353859.324229</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1517090463648846</v>
+        <v>0.1365293731488975</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04736764321368245</v>
+        <v>0.05328110182070901</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>759432787.4716967</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2255899928.059668</v>
+        <v>2317256990.150394</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09605867161754578</v>
+        <v>0.07565493537614493</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04786066117248579</v>
+        <v>0.0335577091374323</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>97</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1127949892.610647</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3924258913.378158</v>
+        <v>4061919445.358762</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1418138044155099</v>
+        <v>0.1325540411908565</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02315697766810425</v>
+        <v>0.02690259028993885</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>125</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1962129482.094839</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1758991821.150061</v>
+        <v>1931146356.154817</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06856269051107884</v>
+        <v>0.1046358903878984</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0328701504027813</v>
+        <v>0.04496029119063606</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>879495895.7942157</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2473218770.005765</v>
+        <v>3131871051.932909</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1045961794466362</v>
+        <v>0.06962061179113507</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03327930044378025</v>
+        <v>0.05017048509333372</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>130</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1236609429.215041</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2991043096.49278</v>
+        <v>2792211323.612566</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1361293867485757</v>
+        <v>0.1326792549719965</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02873662207796304</v>
+        <v>0.03066689964651968</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>116</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1495521614.423946</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1682648589.250364</v>
+        <v>2175515140.395374</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1194312809506503</v>
+        <v>0.1521751142901578</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03744675678161605</v>
+        <v>0.03061088774785076</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>841324288.5369313</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4511861343.167913</v>
+        <v>4286172192.346063</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07632319470963547</v>
+        <v>0.09129416969728493</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03019463564845644</v>
+        <v>0.02375092257182354</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2255930677.786331</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1479584905.739295</v>
+        <v>1969247900.399954</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1387655372234857</v>
+        <v>0.1502878221191784</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02607649591087201</v>
+        <v>0.01963493348321694</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>739792437.511932</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4355878400.852527</v>
+        <v>4809071610.666211</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08518735364851107</v>
+        <v>0.1000846686901751</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04777468039928692</v>
+        <v>0.04736624545031957</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>118</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2177939140.694171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1478415714.724556</v>
+        <v>1520702447.209999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1652712607707451</v>
+        <v>0.1295846391504604</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03724247426792347</v>
+        <v>0.03986530691763321</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>739207887.8127511</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4889515102.92412</v>
+        <v>3642466574.851906</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08325678478157707</v>
+        <v>0.07965603697510125</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03068964369094326</v>
+        <v>0.02430763919568642</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2444757595.167681</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5048897363.348228</v>
+        <v>4694674854.403022</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1344865880938916</v>
+        <v>0.1115137012683463</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03018054955489401</v>
+        <v>0.0204152789291621</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2524448683.815366</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5395002927.223582</v>
+        <v>5542047061.410831</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1426076897297275</v>
+        <v>0.2105448856105465</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0292327739916486</v>
+        <v>0.02410642857846688</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>121</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2697501425.502316</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1613807007.51565</v>
+        <v>2306302836.103428</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1092874816409839</v>
+        <v>0.1508318579809573</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03395213904012077</v>
+        <v>0.04365525924901081</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>806903441.0398088</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1783897907.985473</v>
+        <v>2548049644.680058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07874830229248524</v>
+        <v>0.1004582404658054</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03337462305038649</v>
+        <v>0.03504466865550094</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>891948990.7016098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2596335210.811338</v>
+        <v>3496792907.910899</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1179575863652884</v>
+        <v>0.1233170012002711</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04328554929048652</v>
+        <v>0.0517200601586369</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>128</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1298167620.988701</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2123188903.192568</v>
+        <v>2761070343.40916</v>
       </c>
       <c r="F86" t="n">
-        <v>0.148164260534758</v>
+        <v>0.1074092121977285</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02566463756992002</v>
+        <v>0.01679811896129443</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1061594496.365306</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1074350011.483759</v>
+        <v>960240484.8712591</v>
       </c>
       <c r="F87" t="n">
-        <v>0.146170848949521</v>
+        <v>0.1686900666539417</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0419867178480285</v>
+        <v>0.03931069399438911</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>537175029.1236966</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3358280832.205199</v>
+        <v>3414092944.381059</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205186115210787</v>
+        <v>0.1716511757012447</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02817296898829618</v>
+        <v>0.03946309713605933</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>135</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1679140481.964031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3347447257.987791</v>
+        <v>2936260942.638727</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1470220562839845</v>
+        <v>0.1072152631072438</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0388109431300325</v>
+        <v>0.02594778625226372</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>116</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1673723641.656884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1917781165.975873</v>
+        <v>1635953237.549778</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1320143283632552</v>
+        <v>0.09399864337014487</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04255033888351942</v>
+        <v>0.03840849539853151</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>958890638.1664948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1629539333.692287</v>
+        <v>1805616676.740821</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1569630975208106</v>
+        <v>0.1622093616026904</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04132950495171596</v>
+        <v>0.04361379889721934</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>814769688.4934579</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2237824613.998826</v>
+        <v>1975481069.083363</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07812865141803406</v>
+        <v>0.09942581546964416</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03939957885609771</v>
+        <v>0.03375337659378547</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1118912271.142097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3804894574.239345</v>
+        <v>5018988933.554547</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1189305000773049</v>
+        <v>0.08623679736640182</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04787304167509289</v>
+        <v>0.0441437024805314</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1902447300.361004</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1635251088.396818</v>
+        <v>1648157837.248377</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1377262082658531</v>
+        <v>0.1372905335138618</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04186030846686703</v>
+        <v>0.03332667424205076</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>817625495.1358522</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2160429912.380672</v>
+        <v>2539109537.803727</v>
       </c>
       <c r="F95" t="n">
-        <v>0.117518023651688</v>
+        <v>0.1183975785015006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04873377652527137</v>
+        <v>0.03515890420129573</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1080215016.96717</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1739980113.020239</v>
+        <v>1758758434.67497</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09395415767897727</v>
+        <v>0.1340677845652878</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03840525965926175</v>
+        <v>0.02964882365673423</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>869990071.2454187</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4504361386.769229</v>
+        <v>3721749262.482193</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1680198596004335</v>
+        <v>0.1624043155711403</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02660822360947765</v>
+        <v>0.0214482348788048</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2252180790.340891</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2393478126.142123</v>
+        <v>2961303593.044917</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09034901196882068</v>
+        <v>0.09073832940873049</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03051014391763179</v>
+        <v>0.02716140306568322</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>90</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1196739006.647312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2942596711.780684</v>
+        <v>3414527589.021348</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1340666251320459</v>
+        <v>0.1082210928114321</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02887435260400299</v>
+        <v>0.02195695865193421</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1471298337.663794</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3900718230.38159</v>
+        <v>4291562685.185211</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1659427796580379</v>
+        <v>0.1513880886796693</v>
       </c>
       <c r="G100" t="n">
-        <v>0.019207032226849</v>
+        <v>0.02517399939318389</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1950359177.957888</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3186796903.661576</v>
+        <v>3572200671.79249</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2024493197420704</v>
+        <v>0.1581293488939235</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05646606338085057</v>
+        <v>0.04898019992710661</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>138</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1593398565.567134</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_342.xlsx
+++ b/output/fit_clients/fit_round_342.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2276047853.07759</v>
+        <v>1989539815.67833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08530604359216631</v>
+        <v>0.1132781061868765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0447982708341499</v>
+        <v>0.03396367799531378</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1936440091.372431</v>
+        <v>1655469434.155479</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161596677462276</v>
+        <v>0.1115934993605706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04852131758602539</v>
+        <v>0.03173242322890187</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3748014633.330985</v>
+        <v>4071596937.951656</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1550864490265974</v>
+        <v>0.1431795876915882</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02849528950214747</v>
+        <v>0.03537303344232247</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4114352456.458642</v>
+        <v>3329781606.341197</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07254599454571031</v>
+        <v>0.07091617931269838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03644595812872156</v>
+        <v>0.04484153322102607</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2697853019.525475</v>
+        <v>2517310864.013389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1461194938256436</v>
+        <v>0.1404077290175326</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03750108610400294</v>
+        <v>0.03513274746113523</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3117267274.796586</v>
+        <v>2520033683.000208</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06988706524959608</v>
+        <v>0.08176255129258897</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03404280006757207</v>
+        <v>0.03565083281817803</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2773467385.675118</v>
+        <v>3131492367.587961</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1647867640401817</v>
+        <v>0.1681651529461287</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0284022366605898</v>
+        <v>0.0228769485757905</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1486621585.898069</v>
+        <v>2277688534.235314</v>
       </c>
       <c r="F9" t="n">
-        <v>0.195987445581237</v>
+        <v>0.1894908376472982</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02565449043678661</v>
+        <v>0.02935433572099741</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4395208803.188647</v>
+        <v>5692196825.034219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1573566930883623</v>
+        <v>0.1670349983906492</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04455588481365236</v>
+        <v>0.04556687538701546</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3099640090.561202</v>
+        <v>2798346100.80803</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1450922485676908</v>
+        <v>0.1167376038374227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03096719101286965</v>
+        <v>0.03109893950909916</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2374776927.6608</v>
+        <v>2335903884.63569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1584673550217345</v>
+        <v>0.182491977271639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03374405930054743</v>
+        <v>0.03342218413731005</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3734075822.868451</v>
+        <v>4812005728.163768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09604597389384215</v>
+        <v>0.09350036995879117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02319297819223242</v>
+        <v>0.02461502046936864</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2851273843.554825</v>
+        <v>2839089819.817694</v>
       </c>
       <c r="F14" t="n">
-        <v>0.125438095229853</v>
+        <v>0.1582271602046009</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03820255428444915</v>
+        <v>0.0407701057479208</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1193563615.181079</v>
+        <v>1568835368.649057</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06655126431643051</v>
+        <v>0.07137458592797226</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04705610288427597</v>
+        <v>0.04505949011314846</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766795707.21784</v>
+        <v>2213217634.806404</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1120175873927883</v>
+        <v>0.1019874598027768</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04860481258981528</v>
+        <v>0.04526871343529172</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4552733500.610771</v>
+        <v>4901189559.247449</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1271576513044956</v>
+        <v>0.1182678841913615</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03250825864766336</v>
+        <v>0.04081025646998584</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3753764643.776618</v>
+        <v>3963505761.973792</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1307563618007578</v>
+        <v>0.1519216017766579</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03252464214508566</v>
+        <v>0.03335982046660541</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1208479181.440609</v>
+        <v>1362220394.03828</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1497421438645987</v>
+        <v>0.1466794682823992</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01821438711558666</v>
+        <v>0.02252568571240413</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2196997639.709573</v>
+        <v>2341830610.869377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1292508602266961</v>
+        <v>0.1186612072169509</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02583442223722307</v>
+        <v>0.02780034790429648</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1644048058.197284</v>
+        <v>2660970040.581188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09456604486595561</v>
+        <v>0.08792918410128132</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03626038159845305</v>
+        <v>0.03039854027029095</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3563224337.152128</v>
+        <v>3539016634.448741</v>
       </c>
       <c r="F22" t="n">
-        <v>0.110830758904222</v>
+        <v>0.1303514074693555</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03913049380666008</v>
+        <v>0.04529156196712739</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1360143056.489943</v>
+        <v>944148247.3626574</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1423960109856816</v>
+        <v>0.1541209741456545</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03303408168297694</v>
+        <v>0.03770959419684863</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3671092345.354321</v>
+        <v>2713441616.657894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1173913206810327</v>
+        <v>0.1194662723399301</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02443950080028993</v>
+        <v>0.02873674265330278</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1175014197.568256</v>
+        <v>1450953467.581141</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07395277775373686</v>
+        <v>0.09856519456363304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01970306052181842</v>
+        <v>0.02822783948781658</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>880514014.3547516</v>
+        <v>1088900377.833251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1043514194412773</v>
+        <v>0.08277402937329681</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02507392917341048</v>
+        <v>0.03471879301197874</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3619782700.681395</v>
+        <v>3599806155.291962</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1231955539369409</v>
+        <v>0.141566453652845</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02677552920701263</v>
+        <v>0.0176170393903385</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2850605272.308116</v>
+        <v>3162314242.420787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1362723449016929</v>
+        <v>0.09324369404134863</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03939971221139406</v>
+        <v>0.03204998256086181</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5390545409.477363</v>
+        <v>3976127272.959373</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09296373823511547</v>
+        <v>0.09528054418396056</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04487734610401572</v>
+        <v>0.02992316058411905</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1496149071.393521</v>
+        <v>2314652146.571755</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08666363686291106</v>
+        <v>0.08729236873433403</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02795707660938147</v>
+        <v>0.03480022002913504</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1062008462.00015</v>
+        <v>1266232804.828433</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09431443054282712</v>
+        <v>0.09266901171175589</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04892325991824129</v>
+        <v>0.04848935216103124</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1576446373.520211</v>
+        <v>1739322347.802072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1063123570016422</v>
+        <v>0.1049028258017532</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03485815422616121</v>
+        <v>0.0275607523974868</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2035097304.288625</v>
+        <v>2931785060.723087</v>
       </c>
       <c r="F33" t="n">
-        <v>0.143904216841223</v>
+        <v>0.1352777892393006</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0496436371804211</v>
+        <v>0.04054853891287582</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1228492008.090441</v>
+        <v>1419854941.21915</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07918733719926309</v>
+        <v>0.1012184871333562</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01727402213224353</v>
+        <v>0.01748779958610502</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>932432427.8478767</v>
+        <v>1111254195.397606</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09201481204942813</v>
+        <v>0.08696204001647201</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03295527190895505</v>
+        <v>0.03908287570130558</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3061457728.484706</v>
+        <v>2475950392.352322</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1525220413560201</v>
+        <v>0.1322294268655052</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01869738688570093</v>
+        <v>0.0200628826675627</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2691570710.518494</v>
+        <v>2300557386.674104</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08922299349816991</v>
+        <v>0.0821582159887651</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04218356659855237</v>
+        <v>0.027503170993988</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1558378232.935069</v>
+        <v>1436916185.556415</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08483455714944167</v>
+        <v>0.09792788923113561</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03160097656385283</v>
+        <v>0.03973696946945404</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2124996109.83895</v>
+        <v>1383638347.413462</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1794855126245617</v>
+        <v>0.1511012031156609</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02975206724320549</v>
+        <v>0.02798679751508121</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1630721527.184463</v>
+        <v>1507990808.598794</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1390014911665005</v>
+        <v>0.1018842489874908</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04150045879298296</v>
+        <v>0.05663633991738817</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2841727054.660069</v>
+        <v>2006619365.090942</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1479984290829412</v>
+        <v>0.1630171358845877</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03830373368994713</v>
+        <v>0.04379822333414923</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4048674269.956495</v>
+        <v>3951537776.650616</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08457329732933562</v>
+        <v>0.1211685067915183</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04479170407732833</v>
+        <v>0.03273374518478176</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2866484476.371561</v>
+        <v>2363732743.720957</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1784385733195915</v>
+        <v>0.1809319698016454</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02092236422923646</v>
+        <v>0.01980625384545761</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1623940559.353496</v>
+        <v>2171152817.109534</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09406903902908031</v>
+        <v>0.07887360969030921</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02747899304172463</v>
+        <v>0.0281677903185566</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1678585562.34804</v>
+        <v>2177376363.876252</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1859153196954988</v>
+        <v>0.1328310728512052</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05483199829318794</v>
+        <v>0.04827782823920204</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4045244475.221708</v>
+        <v>3489453675.156478</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1482323710118746</v>
+        <v>0.1266021785386353</v>
       </c>
       <c r="G46" t="n">
-        <v>0.055643285296543</v>
+        <v>0.04669475519021574</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3610721542.503027</v>
+        <v>4864354959.002911</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1817644439339428</v>
+        <v>0.1821750934209984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04405965033344993</v>
+        <v>0.04336788732893293</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3221383774.23258</v>
+        <v>3895026769.745509</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09751148514599367</v>
+        <v>0.08882883892807511</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03183327613970505</v>
+        <v>0.02630229481420039</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1923582779.29667</v>
+        <v>1814121074.757261</v>
       </c>
       <c r="F49" t="n">
-        <v>0.137524497783782</v>
+        <v>0.1640161941534513</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03878378784928083</v>
+        <v>0.03648986607083573</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3486374390.845351</v>
+        <v>3712893270.9483</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1464705410429862</v>
+        <v>0.1266673915659562</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04355937838943359</v>
+        <v>0.0372009977307614</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1383251893.535716</v>
+        <v>1537214442.89967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1647404139331389</v>
+        <v>0.1483791355018486</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04725271340232685</v>
+        <v>0.04726971440177264</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3568516926.909123</v>
+        <v>4411519990.905882</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1184359067146637</v>
+        <v>0.1322655864148533</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04821470574929118</v>
+        <v>0.04740434545074493</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2901436652.765805</v>
+        <v>3292834522.233374</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1610664701876703</v>
+        <v>0.1231008095824052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03497199389853761</v>
+        <v>0.02190361185677026</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4905145051.294468</v>
+        <v>4759629188.639045</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1308089431100048</v>
+        <v>0.1270367721093915</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03520175975587767</v>
+        <v>0.04404937017737321</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4968244289.30436</v>
+        <v>3534911997.000646</v>
       </c>
       <c r="F55" t="n">
-        <v>0.187927234722902</v>
+        <v>0.1900146290560482</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02431527176241847</v>
+        <v>0.02219677880506447</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1195130832.233313</v>
+        <v>1342123076.072261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1007093367041872</v>
+        <v>0.1292965777492646</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04591945306297601</v>
+        <v>0.04754004950799425</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4242002115.207474</v>
+        <v>4041814550.812422</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1810041204861105</v>
+        <v>0.1331844336009481</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0274765776935951</v>
+        <v>0.02495939690584613</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1229046145.301721</v>
+        <v>1850384058.47564</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1536168263279209</v>
+        <v>0.1887869682950461</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02922544653377697</v>
+        <v>0.03358669450402801</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4792719864.481223</v>
+        <v>3378655751.662928</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09184065074034163</v>
+        <v>0.09761859363705333</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04577507376983244</v>
+        <v>0.04272864591312767</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2705182900.214528</v>
+        <v>2331139226.756197</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1691026017199068</v>
+        <v>0.1666866075094668</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02484054037694328</v>
+        <v>0.02249435094281328</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2047196551.922703</v>
+        <v>2486013580.458385</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1552276429749899</v>
+        <v>0.1258828616338822</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03285987375445164</v>
+        <v>0.02142381162526387</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2008500108.814216</v>
+        <v>1433367100.48134</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1515070294237668</v>
+        <v>0.1568499015223478</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03230781049158159</v>
+        <v>0.03244162235193962</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4666703231.753137</v>
+        <v>4501238829.664517</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08190989890550553</v>
+        <v>0.100939378848058</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03019823109762185</v>
+        <v>0.03801541604368364</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5038493155.575612</v>
+        <v>4247583567.96138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1849849529022202</v>
+        <v>0.1669374792664947</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0299748290022057</v>
+        <v>0.03554581942273498</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5303648938.085716</v>
+        <v>3766861407.145672</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1348404588828636</v>
+        <v>0.1142874563340113</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02459657271496351</v>
+        <v>0.02562290854873937</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3620236343.389145</v>
+        <v>5234931412.658386</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1058014753789187</v>
+        <v>0.09917261528069181</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04989104045109474</v>
+        <v>0.04522944478615695</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3375458154.390811</v>
+        <v>2894106577.74164</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09703543609492994</v>
+        <v>0.09295515233718928</v>
       </c>
       <c r="G67" t="n">
-        <v>0.038747159124717</v>
+        <v>0.04282913617169411</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3738962052.397803</v>
+        <v>4618135923.332513</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1124058505746044</v>
+        <v>0.1401602172846914</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04348138902941102</v>
+        <v>0.04370754187807963</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1778353859.324229</v>
+        <v>1995963562.540069</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1365293731488975</v>
+        <v>0.1444279175049966</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05328110182070901</v>
+        <v>0.05704417662364177</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2317256990.150394</v>
+        <v>2596032729.240695</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07565493537614493</v>
+        <v>0.07321706359673916</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0335577091374323</v>
+        <v>0.04773705492882619</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4061919445.358762</v>
+        <v>4901615128.615562</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1325540411908565</v>
+        <v>0.1479215002114485</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02690259028993885</v>
+        <v>0.03342759732574946</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1931146356.154817</v>
+        <v>1950553705.082606</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1046358903878984</v>
+        <v>0.1048149358445657</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04496029119063606</v>
+        <v>0.05178508124728055</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3131871051.932909</v>
+        <v>2264323273.687383</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06962061179113507</v>
+        <v>0.07413416241690007</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05017048509333372</v>
+        <v>0.03477942564083462</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2792211323.612566</v>
+        <v>2665418980.489439</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1326792549719965</v>
+        <v>0.18078842632471</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03066689964651968</v>
+        <v>0.0342446445314114</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2175515140.395374</v>
+        <v>1796054896.805625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1521751142901578</v>
+        <v>0.1042705313000206</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03061088774785076</v>
+        <v>0.02691629944290567</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4286172192.346063</v>
+        <v>4440978063.310506</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09129416969728493</v>
+        <v>0.1150359247580982</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02375092257182354</v>
+        <v>0.03308243705072194</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1969247900.399954</v>
+        <v>2119726523.517255</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1502878221191784</v>
+        <v>0.1673032361935895</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01963493348321694</v>
+        <v>0.02499644116162587</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4809071610.666211</v>
+        <v>4657755315.504411</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1000846686901751</v>
+        <v>0.1038561169250328</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04736624545031957</v>
+        <v>0.05334744880900896</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1520702447.209999</v>
+        <v>1343102041.194402</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1295846391504604</v>
+        <v>0.1487239361267828</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03986530691763321</v>
+        <v>0.03060866746499173</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3642466574.851906</v>
+        <v>5415341522.221815</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07965603697510125</v>
+        <v>0.08686508406941784</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02430763919568642</v>
+        <v>0.03717337621263255</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4694674854.403022</v>
+        <v>4669702143.771083</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1115137012683463</v>
+        <v>0.1128410512176417</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0204152789291621</v>
+        <v>0.02471044060799621</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5542047061.410831</v>
+        <v>5578741786.408759</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2105448856105465</v>
+        <v>0.1333744858857594</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02410642857846688</v>
+        <v>0.02890292357073092</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2306302836.103428</v>
+        <v>2237248262.663208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1508318579809573</v>
+        <v>0.1526660329956875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04365525924901081</v>
+        <v>0.02766352806778</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2548049644.680058</v>
+        <v>1780717949.637468</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1004582404658054</v>
+        <v>0.1133724552354357</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03504466865550094</v>
+        <v>0.03820347937192167</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3496792907.910899</v>
+        <v>3452902536.667955</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1233170012002711</v>
+        <v>0.1310725315554997</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0517200601586369</v>
+        <v>0.03625741004609142</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2761070343.40916</v>
+        <v>1802232272.180062</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1074092121977285</v>
+        <v>0.1723303871080782</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01679811896129443</v>
+        <v>0.02411501799871896</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>960240484.8712591</v>
+        <v>1107067738.499367</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1686900666539417</v>
+        <v>0.1237188391158037</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03931069399438911</v>
+        <v>0.0375644256764459</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3414092944.381059</v>
+        <v>3462886745.174622</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1716511757012447</v>
+        <v>0.1360933662877559</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03946309713605933</v>
+        <v>0.03388663915353427</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2936260942.638727</v>
+        <v>2118726362.661602</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1072152631072438</v>
+        <v>0.1361895680298164</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02594778625226372</v>
+        <v>0.02778748629244175</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1635953237.549778</v>
+        <v>1393207302.321542</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09399864337014487</v>
+        <v>0.1303018903312519</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03840849539853151</v>
+        <v>0.05163870696945183</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1805616676.740821</v>
+        <v>1498515479.623931</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1622093616026904</v>
+        <v>0.1451459625336168</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04361379889721934</v>
+        <v>0.04006971763859635</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1975481069.083363</v>
+        <v>2509858688.780788</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09942581546964416</v>
+        <v>0.1087876795781518</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03375337659378547</v>
+        <v>0.03751194602775287</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5018988933.554547</v>
+        <v>5020863417.499003</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08623679736640182</v>
+        <v>0.1347271979708784</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0441437024805314</v>
+        <v>0.03834166673217531</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1648157837.248377</v>
+        <v>2096724691.807302</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372905335138618</v>
+        <v>0.1617450693264932</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03332667424205076</v>
+        <v>0.03229237922307047</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2539109537.803727</v>
+        <v>3011386642.75979</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1183975785015006</v>
+        <v>0.1033866305828777</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03515890420129573</v>
+        <v>0.04151836479089738</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1758758434.67497</v>
+        <v>1567430595.117847</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1340677845652878</v>
+        <v>0.1114971574519967</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02964882365673423</v>
+        <v>0.02951610782040936</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3721749262.482193</v>
+        <v>3660421816.777478</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1624043155711403</v>
+        <v>0.1243352923994964</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0214482348788048</v>
+        <v>0.02725137769843052</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2961303593.044917</v>
+        <v>3918230655.636128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09073832940873049</v>
+        <v>0.1173169873749018</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02716140306568322</v>
+        <v>0.02215904253864468</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3414527589.021348</v>
+        <v>2889331992.930665</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1082210928114321</v>
+        <v>0.1201818077568072</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02195695865193421</v>
+        <v>0.02643798396874401</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4291562685.185211</v>
+        <v>3689195177.335357</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1513880886796693</v>
+        <v>0.1267959431318963</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02517399939318389</v>
+        <v>0.02594005443106913</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3572200671.79249</v>
+        <v>3281704723.487903</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1581293488939235</v>
+        <v>0.2111120787123693</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04898019992710661</v>
+        <v>0.03647808761152966</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_342.xlsx
+++ b/output/fit_clients/fit_round_342.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1989539815.67833</v>
+        <v>1986589040.600851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132781061868765</v>
+        <v>0.08694327518157119</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03396367799531378</v>
+        <v>0.03902925051860392</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1655469434.155479</v>
+        <v>1652053638.025816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1115934993605706</v>
+        <v>0.1630825659197149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03173242322890187</v>
+        <v>0.04068980870139684</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4071596937.951656</v>
+        <v>4131862673.657196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431795876915882</v>
+        <v>0.1148400128344525</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03537303344232247</v>
+        <v>0.02789056700501426</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>177</v>
+      </c>
+      <c r="J4" t="n">
+        <v>342</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3329781606.341197</v>
+        <v>2703897162.384942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07091617931269838</v>
+        <v>0.1000048704655573</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04484153322102607</v>
+        <v>0.04613101558462911</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>135</v>
+      </c>
+      <c r="J5" t="n">
+        <v>340</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2517310864.013389</v>
+        <v>2742132553.007514</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1404077290175326</v>
+        <v>0.1077369482909093</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03513274746113523</v>
+        <v>0.03690850989746047</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2520033683.000208</v>
+        <v>2551570981.821697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08176255129258897</v>
+        <v>0.08087890390351819</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03565083281817803</v>
+        <v>0.03270583193768128</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3131492367.587961</v>
+        <v>2482380777.165298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1681651529461287</v>
+        <v>0.1754037356777784</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0228769485757905</v>
+        <v>0.02157862317116202</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>89</v>
+      </c>
+      <c r="J8" t="n">
+        <v>340</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2277688534.235314</v>
+        <v>2119024648.205655</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1894908376472982</v>
+        <v>0.1582309084929145</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02935433572099741</v>
+        <v>0.0238789509679981</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5692196825.034219</v>
+        <v>4086819395.778801</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1670349983906492</v>
+        <v>0.2110137762490865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04556687538701546</v>
+        <v>0.04788641813412974</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>291</v>
+      </c>
+      <c r="J10" t="n">
+        <v>342</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +816,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2798346100.80803</v>
+        <v>4156055872.955053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1167376038374227</v>
+        <v>0.1611446937124656</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03109893950909916</v>
+        <v>0.0434466364359655</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>139</v>
+      </c>
+      <c r="J11" t="n">
+        <v>342</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2335903884.63569</v>
+        <v>2596753433.882557</v>
       </c>
       <c r="F12" t="n">
-        <v>0.182491977271639</v>
+        <v>0.1707607763130889</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03342218413731005</v>
+        <v>0.04552965616888933</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +880,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4812005728.163768</v>
+        <v>4074925536.02969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09350036995879117</v>
+        <v>0.08247231778942386</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02461502046936864</v>
+        <v>0.03114061644406814</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>178</v>
+      </c>
+      <c r="J13" t="n">
+        <v>341</v>
+      </c>
+      <c r="K13" t="n">
+        <v>64.39662414077965</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2839089819.817694</v>
+        <v>2673849725.104615</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1582271602046009</v>
+        <v>0.1595462060101399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0407701057479208</v>
+        <v>0.03659872014659824</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1568835368.649057</v>
+        <v>1185320465.942178</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07137458592797226</v>
+        <v>0.08234818866035105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04505949011314846</v>
+        <v>0.02989575580297374</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2213217634.806404</v>
+        <v>2660817379.662049</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1019874598027768</v>
+        <v>0.09634316364133122</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04526871343529172</v>
+        <v>0.047933022254826</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4901189559.247449</v>
+        <v>5127805980.38536</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1182678841913615</v>
+        <v>0.1643810053348868</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04081025646998584</v>
+        <v>0.04459845283586097</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>161</v>
+      </c>
+      <c r="J17" t="n">
+        <v>342</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3963505761.973792</v>
+        <v>3414382084.274911</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1519216017766579</v>
+        <v>0.1422859849138339</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03335982046660541</v>
+        <v>0.03438404633508554</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1362220394.03828</v>
+        <v>1197661808.007626</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1466794682823992</v>
+        <v>0.1250922437312211</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02252568571240413</v>
+        <v>0.02693316247842523</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2341830610.869377</v>
+        <v>2759999814.332394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1186612072169509</v>
+        <v>0.1281384519928286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02780034790429648</v>
+        <v>0.02834967047164944</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2660970040.581188</v>
+        <v>1677398399.529957</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08792918410128132</v>
+        <v>0.07109907811172717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03039854027029095</v>
+        <v>0.03975937883401885</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1203,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3539016634.448741</v>
+        <v>3329201859.608242</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1303514074693555</v>
+        <v>0.1066597547202589</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04529156196712739</v>
+        <v>0.0534613836024232</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1232,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>944148247.3626574</v>
+        <v>1339488950.407186</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1541209741456545</v>
+        <v>0.148774515796943</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03770959419684863</v>
+        <v>0.03724771202190987</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1267,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2713441616.657894</v>
+        <v>3603692141.995907</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194662723399301</v>
+        <v>0.1224024658264866</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02873674265330278</v>
+        <v>0.03595444557659295</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>101</v>
+      </c>
+      <c r="J24" t="n">
+        <v>342</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1302,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1450953467.581141</v>
+        <v>1092916396.65718</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09856519456363304</v>
+        <v>0.07944116642285153</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02822783948781658</v>
+        <v>0.0192766160829437</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088900377.833251</v>
+        <v>933823435.121519</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08277402937329681</v>
+        <v>0.07813745898854629</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03471879301197874</v>
+        <v>0.03748278484589084</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1378,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3599806155.291962</v>
+        <v>2999343317.479679</v>
       </c>
       <c r="F27" t="n">
-        <v>0.141566453652845</v>
+        <v>0.103603895344006</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0176170393903385</v>
+        <v>0.02680445564332263</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>142</v>
+      </c>
+      <c r="J27" t="n">
+        <v>338</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1413,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3162314242.420787</v>
+        <v>3846960039.966455</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09324369404134863</v>
+        <v>0.1078124566455154</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03204998256086181</v>
+        <v>0.03328565141158314</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>75</v>
+      </c>
+      <c r="J28" t="n">
+        <v>342</v>
+      </c>
+      <c r="K28" t="n">
+        <v>75.06130751401055</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3976127272.959373</v>
+        <v>4736136070.342581</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09528054418396056</v>
+        <v>0.1192905005929526</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02992316058411905</v>
+        <v>0.0423689827994511</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>309</v>
+      </c>
+      <c r="J29" t="n">
+        <v>341</v>
+      </c>
+      <c r="K29" t="n">
+        <v>64.54284895933729</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2314652146.571755</v>
+        <v>1715837119.693221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08729236873433403</v>
+        <v>0.1247383340959992</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03480022002913504</v>
+        <v>0.02880199818890531</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1266232804.828433</v>
+        <v>1220124597.95254</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09266901171175589</v>
+        <v>0.1094576724182622</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04848935216103124</v>
+        <v>0.03319224858511403</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1739322347.802072</v>
+        <v>1308611781.206882</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049028258017532</v>
+        <v>0.09093095981606837</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0275607523974868</v>
+        <v>0.03409231729060435</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2931785060.723087</v>
+        <v>2972250994.010076</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1352777892393006</v>
+        <v>0.1409534416475042</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04054853891287582</v>
+        <v>0.06081132299724792</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1419854941.21915</v>
+        <v>1380529668.16085</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1012184871333562</v>
+        <v>0.08711949613171401</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01748779958610502</v>
+        <v>0.02609102120583738</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1111254195.397606</v>
+        <v>1318419322.282656</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08696204001647201</v>
+        <v>0.1052879726613718</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03908287570130558</v>
+        <v>0.03240040481164547</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2475950392.352322</v>
+        <v>2821553837.795185</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1322294268655052</v>
+        <v>0.1745997799556663</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0200628826675627</v>
+        <v>0.02298633535476324</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2300557386.674104</v>
+        <v>2026888528.805731</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0821582159887651</v>
+        <v>0.07397616249386671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.027503170993988</v>
+        <v>0.03142583095330994</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1436916185.556415</v>
+        <v>1879930121.409972</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09792788923113561</v>
+        <v>0.1069327253372614</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03973696946945404</v>
+        <v>0.02604360019912668</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1383638347.413462</v>
+        <v>1906339848.388629</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1511012031156609</v>
+        <v>0.1713086490055458</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02798679751508121</v>
+        <v>0.02758662343624799</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1507990808.598794</v>
+        <v>1143820687.715804</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1018842489874908</v>
+        <v>0.1201750626102381</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05663633991738817</v>
+        <v>0.0463157212879199</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2006619365.090942</v>
+        <v>2303180153.984071</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1630171358845877</v>
+        <v>0.1415700138248412</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04379822333414923</v>
+        <v>0.02890366398565319</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3951537776.650616</v>
+        <v>3681720377.348241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1211685067915183</v>
+        <v>0.1185041688974919</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03273374518478176</v>
+        <v>0.03478194639142141</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>149</v>
+      </c>
+      <c r="J42" t="n">
+        <v>341</v>
+      </c>
+      <c r="K42" t="n">
+        <v>60.60315068817203</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2363732743.720957</v>
+        <v>1907011056.723248</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1809319698016454</v>
+        <v>0.1786398903587719</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01980625384545761</v>
+        <v>0.02548022032005997</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2171152817.109534</v>
+        <v>1585173576.612578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07887360969030921</v>
+        <v>0.0703824752184852</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0281677903185566</v>
+        <v>0.02740730609953868</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2177376363.876252</v>
+        <v>1743820830.446264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1328310728512052</v>
+        <v>0.1887433131712561</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04827782823920204</v>
+        <v>0.03525286489193584</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3489453675.156478</v>
+        <v>5217051339.351662</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1266021785386353</v>
+        <v>0.1522574981581366</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04669475519021574</v>
+        <v>0.05884254285542583</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>205</v>
+      </c>
+      <c r="J46" t="n">
+        <v>341</v>
+      </c>
+      <c r="K46" t="n">
+        <v>66.43397218051635</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4864354959.002911</v>
+        <v>4433586103.95434</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1821750934209984</v>
+        <v>0.197674784284061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04336788732893293</v>
+        <v>0.04485625750654619</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>152</v>
+      </c>
+      <c r="J47" t="n">
+        <v>342</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3895026769.745509</v>
+        <v>4661556912.307014</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08882883892807511</v>
+        <v>0.09793057047858972</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02630229481420039</v>
+        <v>0.02955532350937764</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>168</v>
+      </c>
+      <c r="J48" t="n">
+        <v>342</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1814121074.757261</v>
+        <v>1246260888.724767</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1640161941534513</v>
+        <v>0.1466699488011698</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03648986607083573</v>
+        <v>0.04267805192901519</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3712893270.9483</v>
+        <v>2862050522.226869</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1266673915659562</v>
+        <v>0.1389977499084601</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0372009977307614</v>
+        <v>0.04051479323651857</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>112</v>
+      </c>
+      <c r="J50" t="n">
+        <v>339</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1537214442.89967</v>
+        <v>1123230842.667773</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1483791355018486</v>
+        <v>0.1569701790321078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04726971440177264</v>
+        <v>0.04476529542843325</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2261,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4411519990.905882</v>
+        <v>4640359323.281291</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1322655864148533</v>
+        <v>0.1068325407501083</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04740434545074493</v>
+        <v>0.04505325881792128</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>205</v>
+      </c>
+      <c r="J52" t="n">
+        <v>341</v>
+      </c>
+      <c r="K52" t="n">
+        <v>64.6802787436708</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2298,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3292834522.233374</v>
+        <v>3184576247.603643</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1231008095824052</v>
+        <v>0.1867613705439109</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02190361185677026</v>
+        <v>0.022834176286076</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>50</v>
+      </c>
+      <c r="J53" t="n">
+        <v>341</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48.42792985701008</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4759629188.639045</v>
+        <v>4506618227.43653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1270367721093915</v>
+        <v>0.1361068997129741</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04404937017737321</v>
+        <v>0.04397067268035732</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>180</v>
+      </c>
+      <c r="J54" t="n">
+        <v>342</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3534911997.000646</v>
+        <v>3723864411.521549</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1900146290560482</v>
+        <v>0.2009520219656045</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02219677880506447</v>
+        <v>0.02999471986596342</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>163</v>
+      </c>
+      <c r="J55" t="n">
+        <v>342</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1342123076.072261</v>
+        <v>1802882910.429248</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1292965777492646</v>
+        <v>0.1353823769622009</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04754004950799425</v>
+        <v>0.04666758982301628</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2434,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4041814550.812422</v>
+        <v>4585603722.605395</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1331844336009481</v>
+        <v>0.1116844191809608</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02495939690584613</v>
+        <v>0.01798762892670988</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>140</v>
+      </c>
+      <c r="J57" t="n">
+        <v>342</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1850384058.47564</v>
+        <v>1659296440.805392</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1887869682950461</v>
+        <v>0.1275312410145492</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03358669450402801</v>
+        <v>0.03221957707824211</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3378655751.662928</v>
+        <v>5001301144.457011</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09761859363705333</v>
+        <v>0.118557316206097</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04272864591312767</v>
+        <v>0.03599680354561603</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>165</v>
+      </c>
+      <c r="J59" t="n">
+        <v>341</v>
+      </c>
+      <c r="K59" t="n">
+        <v>66.03294345468557</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2331139226.756197</v>
+        <v>2810972615.226944</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1666866075094668</v>
+        <v>0.1829421547292346</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02249435094281328</v>
+        <v>0.02928138479205991</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" t="n">
+        <v>338</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2582,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2486013580.458385</v>
+        <v>3269107817.390287</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1258828616338822</v>
+        <v>0.1792830954102033</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02142381162526387</v>
+        <v>0.01998048494479151</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1433367100.48134</v>
+        <v>1505801267.410859</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1568499015223478</v>
+        <v>0.1619125935298497</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03244162235193962</v>
+        <v>0.04408959147290854</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2646,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4501238829.664517</v>
+        <v>4167603889.311489</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100939378848058</v>
+        <v>0.08125191184009498</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03801541604368364</v>
+        <v>0.03710458359245936</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>167</v>
+      </c>
+      <c r="J63" t="n">
+        <v>342</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2687,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4247583567.96138</v>
+        <v>4936915687.980954</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1669374792664947</v>
+        <v>0.1636839379033725</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03554581942273498</v>
+        <v>0.03174616442304097</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>169</v>
+      </c>
+      <c r="J64" t="n">
+        <v>342</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2716,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3766861407.145672</v>
+        <v>5919591043.500018</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1142874563340113</v>
+        <v>0.1184180039487454</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02562290854873937</v>
+        <v>0.02681073670982402</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>265</v>
+      </c>
+      <c r="J65" t="n">
+        <v>342</v>
+      </c>
+      <c r="K65" t="n">
+        <v>66.69380252006681</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2753,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5234931412.658386</v>
+        <v>4293767603.264376</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09917261528069181</v>
+        <v>0.106141668577039</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04522944478615695</v>
+        <v>0.04887271345135748</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>169</v>
+      </c>
+      <c r="J66" t="n">
+        <v>341</v>
+      </c>
+      <c r="K66" t="n">
+        <v>63.17447752164573</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2796,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2894106577.74164</v>
+        <v>2503942230.762983</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09295515233718928</v>
+        <v>0.07785911081090406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04282913617169411</v>
+        <v>0.03720604439984172</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4618135923.332513</v>
+        <v>5440837719.607012</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1401602172846914</v>
+        <v>0.1405460952767996</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04370754187807963</v>
+        <v>0.04580983730291641</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>186</v>
+      </c>
+      <c r="J68" t="n">
+        <v>341</v>
+      </c>
+      <c r="K68" t="n">
+        <v>64.8902656111179</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1995963562.540069</v>
+        <v>1648385271.21857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1444279175049966</v>
+        <v>0.165654150482994</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05704417662364177</v>
+        <v>0.04859240196506977</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2596032729.240695</v>
+        <v>2685315724.475224</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07321706359673916</v>
+        <v>0.0850020360620822</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04773705492882619</v>
+        <v>0.04311692128136123</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2938,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4901615128.615562</v>
+        <v>3690388863.362524</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1479215002114485</v>
+        <v>0.1189059960591151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03342759732574946</v>
+        <v>0.02724021915570518</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>251</v>
+      </c>
+      <c r="J71" t="n">
+        <v>341</v>
+      </c>
+      <c r="K71" t="n">
+        <v>53.5279109340255</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1950553705.082606</v>
+        <v>1871775931.135513</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1048149358445657</v>
+        <v>0.09084271346970525</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05178508124728055</v>
+        <v>0.04086902760095523</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2264323273.687383</v>
+        <v>2562462313.416328</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07413416241690007</v>
+        <v>0.06899043074876612</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03477942564083462</v>
+        <v>0.0424596549904699</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2665418980.489439</v>
+        <v>2818648033.13575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.18078842632471</v>
+        <v>0.1266678322455108</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0342446445314114</v>
+        <v>0.02504724835964464</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>93</v>
+      </c>
+      <c r="J74" t="n">
+        <v>341</v>
+      </c>
+      <c r="K74" t="n">
+        <v>38.52509500047407</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1796054896.805625</v>
+        <v>2225973532.076475</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1042705313000206</v>
+        <v>0.1499613553612562</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02691629944290567</v>
+        <v>0.02766417786933748</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4440978063.310506</v>
+        <v>4464195599.454898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1150359247580982</v>
+        <v>0.1166676784300561</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03308243705072194</v>
+        <v>0.02567386178230206</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>161</v>
+      </c>
+      <c r="J76" t="n">
+        <v>342</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2119726523.517255</v>
+        <v>2164038710.218604</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1673032361935895</v>
+        <v>0.1479073128776374</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02499644116162587</v>
+        <v>0.02533718402437152</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4657755315.504411</v>
+        <v>3973374982.345619</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1038561169250328</v>
+        <v>0.1283261186400373</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05334744880900896</v>
+        <v>0.03923499571275735</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>170</v>
+      </c>
+      <c r="J78" t="n">
+        <v>341</v>
+      </c>
+      <c r="K78" t="n">
+        <v>63.82879082254095</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1343102041.194402</v>
+        <v>1626773373.764704</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1487239361267828</v>
+        <v>0.108468737111675</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03060866746499173</v>
+        <v>0.02954443177245648</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5415341522.221815</v>
+        <v>4678636774.851544</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08686508406941784</v>
+        <v>0.08499066830002995</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03717337621263255</v>
+        <v>0.03667011854592528</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>167</v>
+      </c>
+      <c r="J80" t="n">
+        <v>342</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4669702143.771083</v>
+        <v>4275975181.284083</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1128410512176417</v>
+        <v>0.1335034488315237</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02471044060799621</v>
+        <v>0.0283905228991259</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>158</v>
+      </c>
+      <c r="J81" t="n">
+        <v>341</v>
+      </c>
+      <c r="K81" t="n">
+        <v>63.24286079252683</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5578741786.408759</v>
+        <v>5078002334.879555</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1333744858857594</v>
+        <v>0.1544355041127509</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02890292357073092</v>
+        <v>0.02791057242146079</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>244</v>
+      </c>
+      <c r="J82" t="n">
+        <v>342</v>
+      </c>
+      <c r="K82" t="n">
+        <v>67.17036166627192</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2237248262.663208</v>
+        <v>2370376902.757599</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1526660329956875</v>
+        <v>0.1102447906298935</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02766352806778</v>
+        <v>0.03973633076558234</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1780717949.637468</v>
+        <v>2478823393.432419</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1133724552354357</v>
+        <v>0.0743758608803006</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03820347937192167</v>
+        <v>0.04457583968388012</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3452902536.667955</v>
+        <v>3657381392.301641</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1310725315554997</v>
+        <v>0.1342258714340567</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03625741004609142</v>
+        <v>0.0469615380036376</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>342</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1802232272.180062</v>
+        <v>1943801458.134977</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1723303871080782</v>
+        <v>0.1603246569978238</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02411501799871896</v>
+        <v>0.01722564332615185</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1107067738.499367</v>
+        <v>1322026191.864747</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1237188391158037</v>
+        <v>0.1404115597212608</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0375644256764459</v>
+        <v>0.02994634103355415</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3462886745.174622</v>
+        <v>3588919744.245858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1360933662877559</v>
+        <v>0.1754726734738353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03388663915353427</v>
+        <v>0.02735523462481444</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2118726362.661602</v>
+        <v>3515573624.15307</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1361895680298164</v>
+        <v>0.1073688799649206</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02778748629244175</v>
+        <v>0.03658784129170974</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1393207302.321542</v>
+        <v>1868422265.531127</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1303018903312519</v>
+        <v>0.1351896094286203</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05163870696945183</v>
+        <v>0.03655490263612018</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1498515479.623931</v>
+        <v>1781847542.376269</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1451459625336168</v>
+        <v>0.1724904258086901</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04006971763859635</v>
+        <v>0.0574904810506151</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2509858688.780788</v>
+        <v>3002984067.599946</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1087876795781518</v>
+        <v>0.0916796291702804</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03751194602775287</v>
+        <v>0.04408473006503603</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5020863417.499003</v>
+        <v>4211536413.115889</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1347271979708784</v>
+        <v>0.1222878646864962</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03834166673217531</v>
+        <v>0.04784774602240036</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>157</v>
+      </c>
+      <c r="J93" t="n">
+        <v>342</v>
+      </c>
+      <c r="K93" t="n">
+        <v>69.19785896019087</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2096724691.807302</v>
+        <v>1880949516.419769</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1617450693264932</v>
+        <v>0.1128081474802877</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03229237922307047</v>
+        <v>0.03699292195667993</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3011386642.75979</v>
+        <v>2644274950.114277</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1033866305828777</v>
+        <v>0.09430146881114139</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04151836479089738</v>
+        <v>0.05153747345690801</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1567430595.117847</v>
+        <v>1637600770.428235</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1114971574519967</v>
+        <v>0.1017159905935686</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02951610782040936</v>
+        <v>0.04716122012144267</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3660421816.777478</v>
+        <v>3950436476.985698</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1243352923994964</v>
+        <v>0.1109112706934328</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02725137769843052</v>
+        <v>0.02169336666962249</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>176</v>
+      </c>
+      <c r="J97" t="n">
+        <v>341</v>
+      </c>
+      <c r="K97" t="n">
+        <v>63.71242465107101</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3918230655.636128</v>
+        <v>3040376587.920278</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1173169873749018</v>
+        <v>0.124365101023664</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02215904253864468</v>
+        <v>0.03037556829132528</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>86</v>
+      </c>
+      <c r="J98" t="n">
+        <v>340</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2889331992.930665</v>
+        <v>2708253339.836042</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1201818077568072</v>
+        <v>0.1036319969180646</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02643798396874401</v>
+        <v>0.02473502845541121</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3689195177.335357</v>
+        <v>4082012424.343874</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1267959431318963</v>
+        <v>0.1383922629477183</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02594005443106913</v>
+        <v>0.02082256852237596</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>154</v>
+      </c>
+      <c r="J100" t="n">
+        <v>342</v>
+      </c>
+      <c r="K100" t="n">
+        <v>68.90196736166625</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3281704723.487903</v>
+        <v>3016093585.35635</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2111120787123693</v>
+        <v>0.1483851285742238</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03647808761152966</v>
+        <v>0.03873814928106269</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="n">
+        <v>50.64432277893133</v>
       </c>
     </row>
   </sheetData>
